--- a/benchmark/result.xlsx
+++ b/benchmark/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SGX\PHE\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B0F0A9-C923-4312-93CC-16B4C73EE037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5761CD2-F3AA-4884-A7A5-E2C71D107D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="893" yWindow="-98" windowWidth="28005" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5948" yWindow="1020" windowWidth="12149" windowHeight="11873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Delay" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
   <si>
     <t>sgxPHE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>Dec-Fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Validate-Fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -155,10 +151,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,29 +437,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FAD2B1-DB5B-44DF-812C-96929FF6E349}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="16.06640625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="11.3984375" style="3"/>
+    <col min="1" max="2" width="16.06640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -484,7 +480,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -492,19 +488,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -512,19 +508,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -532,19 +528,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -552,25 +548,19 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -588,21 +578,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="16.06640625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="11.3984375" style="3"/>
+    <col min="1" max="2" width="16.06640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -623,7 +613,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -631,19 +621,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -651,19 +641,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -671,19 +661,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -691,25 +681,25 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -727,8 +717,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="16.06640625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="11.3984375" style="3"/>
+    <col min="1" max="2" width="16.06640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
@@ -748,7 +738,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -756,19 +746,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -776,19 +766,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -796,19 +786,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -816,15 +806,15 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/result.xlsx
+++ b/benchmark/result.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SGX\PHE\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5761CD2-F3AA-4884-A7A5-E2C71D107D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25FD45A-49F7-4BB7-B400-EF981B5F4870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5948" yWindow="1020" windowWidth="12149" windowHeight="11873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16297" yWindow="-4860" windowWidth="16395" windowHeight="28395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Time Delay" sheetId="6" r:id="rId1"/>
-    <sheet name="Throughput" sheetId="9" r:id="rId2"/>
-    <sheet name="Multi-core Throughput" sheetId="8" r:id="rId3"/>
+    <sheet name="Update" sheetId="11" r:id="rId1"/>
+    <sheet name="Time Delay" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
+    <sheet name="Throughput" sheetId="9" r:id="rId4"/>
+    <sheet name="Multi-core Throughput" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>sgxPHE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,6 +158,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,11 +444,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FAD2B1-DB5B-44DF-812C-96929FF6E349}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C6D7D4-774E-4882-AE87-BC1844DE5DA0}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.06640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="11.3984375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="5">
+        <v>100000</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FAD2B1-DB5B-44DF-812C-96929FF6E349}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -452,14 +514,14 @@
     <row r="1" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -480,7 +542,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -488,79 +550,67 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="10" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -568,7 +618,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5378F18E-0F1D-45E0-A685-9A50FABA0BDF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63EA084-CECC-4C45-8592-8A5714B5048F}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -585,14 +649,14 @@
     <row r="1" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -613,7 +677,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -621,19 +685,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -641,19 +705,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -661,19 +725,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -681,13 +745,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -707,7 +771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC18AB60-08D4-4C7D-89DB-C3386A49056E}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -738,7 +802,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -746,19 +810,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -766,19 +830,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -786,19 +850,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -806,13 +870,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>

--- a/benchmark/result.xlsx
+++ b/benchmark/result.xlsx
@@ -1,35 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SGX\PHE\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25FD45A-49F7-4BB7-B400-EF981B5F4870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2D91A2-E481-47DA-88C3-CAAD92F2FCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16297" yWindow="-4860" windowWidth="16395" windowHeight="28395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="-98" windowWidth="28043" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Update" sheetId="11" r:id="rId1"/>
-    <sheet name="Time Delay" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
-    <sheet name="Throughput" sheetId="9" r:id="rId4"/>
-    <sheet name="Multi-core Throughput" sheetId="8" r:id="rId5"/>
+    <sheet name="Time Delay" sheetId="6" r:id="rId1"/>
+    <sheet name="Throughput" sheetId="9" r:id="rId2"/>
+    <sheet name="Update" sheetId="11" r:id="rId3"/>
+    <sheet name="Multi-core Throughput" sheetId="8" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>sgxPHE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,18 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HTTP-Keepalive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>On</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +83,54 @@
   </si>
   <si>
     <t>Update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTPs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update (count=100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and 400 parallel requests.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS:10,000 iterations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asymPHE(ns)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHE 18'(ns)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoenix 17'(ns)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgxPHE(ns)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgx总时间需要加上创建环境所需的2.35s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +207,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,65 +499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C6D7D4-774E-4882-AE87-BC1844DE5DA0}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FAD2B1-DB5B-44DF-812C-96929FF6E349}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="16.06640625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="11.3984375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3"/>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D1" s="5">
-        <v>100000</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FAD2B1-DB5B-44DF-812C-96929FF6E349}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A11:XFD11"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -511,106 +512,146 @@
     <col min="3" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:4" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2">
+        <f>(114.612+7.385)*1000</f>
+        <v>121997</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="2">
+        <f>(9.6+365.607+7.2)*1000</f>
+        <v>382407.00000000006</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>399925</v>
+      </c>
+      <c r="D4" s="2">
+        <v>387581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
+      <c r="C5" s="2">
+        <v>794639</v>
+      </c>
+      <c r="D5" s="2">
+        <v>779434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <f>549056+830441</f>
+        <v>1379497</v>
+      </c>
+      <c r="D6" s="2">
+        <f>543675+756609</f>
+        <v>1300284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <f>806640+764356</f>
+        <v>1570996</v>
+      </c>
+      <c r="D7" s="2">
+        <f xml:space="preserve"> 784453+802402</f>
+        <v>1586855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
+      <c r="C8" s="2">
+        <v>1374774</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1362495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>426992</v>
+      </c>
+      <c r="D9" s="2">
+        <v>417998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1279859</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1269639</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
+  <mergeCells count="4">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -618,14 +659,230 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5378F18E-0F1D-45E0-A685-9A50FABA0BDF}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63EA084-CECC-4C45-8592-8A5714B5048F}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="16.06640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="11.3984375" style="2"/>
+    <col min="6" max="6" width="29.796875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.3984375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4130.7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4129.6400000000003</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4011.41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3059.1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1932.97</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1788.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1682.31</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1666.26</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3923.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3245.29</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1668.89</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4024.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C6D7D4-774E-4882-AE87-BC1844DE5DA0}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.06640625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="11.3984375" style="2"/>
+    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.3984375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4">
+        <v>100</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F1" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2">
+        <f>130.88*1000</f>
+        <v>130880</v>
+      </c>
+      <c r="C2" s="2">
+        <f>183.15*1000</f>
+        <v>183150</v>
+      </c>
+      <c r="D2" s="2">
+        <v>637561</v>
+      </c>
+      <c r="E2" s="2">
+        <f>4.84209*1000*1000</f>
+        <v>4842090</v>
+      </c>
+      <c r="F2" s="2">
+        <f>46.40101*1000*1000</f>
+        <v>46401010</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
+        <v>566858</v>
+      </c>
+      <c r="C3" s="2">
+        <v>770924</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2455684</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18799031</v>
+      </c>
+      <c r="F3" s="2">
+        <v>179194301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
+        <v>674362</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3748797</v>
+      </c>
+      <c r="D4" s="2">
+        <v>39806147</v>
+      </c>
+      <c r="E4" s="2">
+        <v>373171582</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3731200386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>735863</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5618738</v>
+      </c>
+      <c r="D5" s="2">
+        <v>54790285</v>
+      </c>
+      <c r="E5" s="2">
+        <v>538234738</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5420765612</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -633,145 +890,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63EA084-CECC-4C45-8592-8A5714B5048F}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="16.06640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.3984375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC18AB60-08D4-4C7D-89DB-C3386A49056E}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -802,83 +920,83 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9"/>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="9"/>
+      <c r="B13" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/result.xlsx
+++ b/benchmark/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SGX\PHE\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2D91A2-E481-47DA-88C3-CAAD92F2FCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DBFB6B-D120-406A-BFF3-10BFF6131C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-98" windowWidth="28043" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16297" yWindow="-4860" windowWidth="16395" windowHeight="28395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Delay" sheetId="6" r:id="rId1"/>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FAD2B1-DB5B-44DF-812C-96929FF6E349}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -532,8 +532,8 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <f>(114.612+7.385)*1000</f>
-        <v>121997</v>
+        <f>(326.607+8.265)*1000</f>
+        <v>334872</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -545,8 +545,8 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <f>(9.6+365.607+7.2)*1000</f>
-        <v>382407.00000000006</v>
+        <f>(7.561+258.814+ 5.284)*1000</f>
+        <v>271659</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -663,7 +663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63EA084-CECC-4C45-8592-8A5714B5048F}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -696,13 +698,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>4130.7</v>
+        <v>3973.37</v>
       </c>
       <c r="C2" s="2">
-        <v>4129.6400000000003</v>
+        <v>3984.2</v>
       </c>
       <c r="D2" s="2">
-        <v>4011.41</v>
+        <v>4023.83</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -762,7 +764,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -798,23 +800,24 @@
         <v>21</v>
       </c>
       <c r="B2" s="2">
-        <f>130.88*1000</f>
-        <v>130880</v>
+        <f>266.032*1000</f>
+        <v>266032</v>
       </c>
       <c r="C2" s="2">
-        <f>183.15*1000</f>
-        <v>183150</v>
+        <f>331.526*1000</f>
+        <v>331526</v>
       </c>
       <c r="D2" s="2">
-        <v>637561</v>
+        <f>777.371*1000</f>
+        <v>777371</v>
       </c>
       <c r="E2" s="2">
-        <f>4.84209*1000*1000</f>
-        <v>4842090</v>
+        <f>5.077907*1000*1000</f>
+        <v>5077907</v>
       </c>
       <c r="F2" s="2">
-        <f>46.40101*1000*1000</f>
-        <v>46401010</v>
+        <f>46.57528*1000*1000</f>
+        <v>46575280</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>22</v>

--- a/benchmark/result.xlsx
+++ b/benchmark/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SGX\PHE\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DBFB6B-D120-406A-BFF3-10BFF6131C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDB9908-4924-49B4-8A1A-722E0C8F26C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16297" yWindow="-4860" windowWidth="16395" windowHeight="28395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16297" yWindow="-4860" windowWidth="16395" windowHeight="28395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Delay" sheetId="6" r:id="rId1"/>
@@ -126,11 +126,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sgx总时间需要加上创建环境所需的2.35s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>req/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgx总时间需要加上创建环境所需的735ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,8 +532,8 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <f>(326.607+8.265)*1000</f>
-        <v>334872</v>
+        <f>158.392*1000</f>
+        <v>158392</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -545,8 +545,8 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <f>(7.561+258.814+ 5.284)*1000</f>
-        <v>271659</v>
+        <f>191.559*1000</f>
+        <v>191559</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63EA084-CECC-4C45-8592-8A5714B5048F}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -677,7 +677,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -698,13 +698,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>3973.37</v>
+        <v>3723.39</v>
       </c>
       <c r="C2" s="2">
-        <v>3984.2</v>
+        <v>2982.91</v>
       </c>
       <c r="D2" s="2">
-        <v>4023.83</v>
+        <v>5271.69</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C6D7D4-774E-4882-AE87-BC1844DE5DA0}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -800,27 +800,27 @@
         <v>21</v>
       </c>
       <c r="B2" s="2">
-        <f>266.032*1000</f>
-        <v>266032</v>
+        <f>169.59*1000</f>
+        <v>169590</v>
       </c>
       <c r="C2" s="2">
-        <f>331.526*1000</f>
-        <v>331526</v>
+        <f>218.997*1000</f>
+        <v>218997</v>
       </c>
       <c r="D2" s="2">
-        <f>777.371*1000</f>
-        <v>777371</v>
+        <f>70.782*10000</f>
+        <v>707820</v>
       </c>
       <c r="E2" s="2">
-        <f>5.077907*1000*1000</f>
-        <v>5077907</v>
+        <f>359.892*1000*10</f>
+        <v>3598920</v>
       </c>
       <c r="F2" s="2">
-        <f>46.57528*1000*1000</f>
-        <v>46575280</v>
+        <f>3.635073*1000*1000*100</f>
+        <v>363507300.00000006</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
